--- a/Sprint/resources/target/test-classes/ExcelData/communityData.xlsx
+++ b/Sprint/resources/target/test-classes/ExcelData/communityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint\resources\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D00ABD-3B07-4FCD-B9D1-645398B8870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BB0EF9-521D-4201-AF16-0D56B553C17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>subMenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>communityName</t>
-  </si>
-  <si>
-    <t>https://www.edureka.co</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Community</t>
   </si>
   <si>
     <t>Data Science</t>
@@ -64,18 +46,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,16 +72,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,81 +371,32 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{39012A9C-3538-4840-8A5D-3243401F162C}"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://www.edureka.co" xr:uid="{B1A2A952-CEFB-4E40-A6FB-07ABF7F80069}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
